--- a/forms/app/followup_child_health.xlsx
+++ b/forms/app/followup_child_health.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elvis/Labo/JavascriptProjects/cht-core/config/healthy-village/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119E856-D564-F544-A58C-AE15C16E8C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A830AFD0-0643-A441-879A-A277A07ABDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1395,10 +1395,10 @@
   <dimension ref="A1:AJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
+      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44748.908606944446</v>
+        <v>44748.992703009259</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>43</v>
